--- a/Examples/DCF_Model_AcmeTech.xlsx
+++ b/Examples/DCF_Model_AcmeTech.xlsx
@@ -1424,7 +1424,7 @@
       <c r="B15" s="5" t="n"/>
       <c r="C15" s="5" t="n"/>
       <c r="D15" s="20">
-        <f>Assumptions!$B$20</f>
+        <f>Assumptions!$B$21</f>
         <v/>
       </c>
     </row>

--- a/Examples/DCF_Model_AcmeTech.xlsx
+++ b/Examples/DCF_Model_AcmeTech.xlsx
@@ -534,7 +534,7 @@
     <row r="5">
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Valuation Date: October 24, 2025</t>
+          <t>Valuation Date: October 26, 2025</t>
         </is>
       </c>
     </row>
